--- a/TSP/Solutions/SA.xlsx
+++ b/TSP/Solutions/SA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4785,6 +4785,4306 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>[28  1 41 13 24 20 46  8  0  7 37 45 39 14 32 43 17  6  5 16 42 27 11 10
+ 22  2 21 15 40 30 36 18 26 29 35 19 12 33 47 31 38 23  9  3 25 44 34  4]</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>16232</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G102" t="n">
+        <v>100</v>
+      </c>
+      <c r="H102" t="n">
+        <v>100</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>[20 38 47  4 28 33 22 21 15  2 39 27  5 36 18 16 26 29 35 32 14  8 37  7
+  0 40  1 41 23 44 34  3 25  9 31 42  6 43 17 19 12 24 13 10 45 30 11 46]</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>16290</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G103" t="n">
+        <v>100</v>
+      </c>
+      <c r="H103" t="n">
+        <v>100</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>[18 36  5 12 33 13 20 47 25  3 44 34 23  9 41  1 28  4 24 38 31 46 11 19
+ 10 22  7  8 14 45 17 27 42 16 26 29 35 30 43 37  0 21 39  2 40 15 32  6]</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>16546</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>100</v>
+      </c>
+      <c r="H104" t="n">
+        <v>100</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>[18 26 42 16 29  5  7  0 32 39 21 15 31 23  9 25  3 44 34 41  4 47 10 22
+  2 33 40 28  1 13 14 19 20 38 24 12 46 11 35 27 30 37  8 45  6 43 17 36]</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>16752</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>100</v>
+      </c>
+      <c r="H105" t="n">
+        <v>100</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>[32 14 45  6 27 36 18 17 37  8 39 43 30 29 26 16 42  5 35  7  0 10 46 12
+ 38  9  3 25 41  1 28 40 21 15 11  2 22 24 20 13 33  4 47 34 44 23 31 19]</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>16989</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>100</v>
+      </c>
+      <c r="H106" t="n">
+        <v>100</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>[11 32 46 20 39 37 30  6 45 14 34 44  3 25 41  9 23 31 38  4 47 33 40 15
+  0  8  7 21  2  1 28 24 13 43 36 18  5 35 17 27 29 16 26 42 19 12 22 10]</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>17001</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G107" t="n">
+        <v>100</v>
+      </c>
+      <c r="H107" t="n">
+        <v>100</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>[16 26 27  6 35 20 47  4 33 14 45 43 19 46 22  7  0 30  5 36 18 29 32 11
+ 37  8  2 13 24 10 12 38 31 25  3  9 44 34 23 41  1 28 40 15 21 39 17 42]</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>17223</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>100</v>
+      </c>
+      <c r="H108" t="n">
+        <v>100</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>[33 40  2 13 23 44 34  3 25  9 47 38 20 24 22  4 28  1 41 31  5 36 18 29
+ 21 15  0  7 37 30 43 35 45 12 46 10 19 32 42 16 26 27  6 17 11 14  8 39]</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>17434</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>100</v>
+      </c>
+      <c r="H109" t="n">
+        <v>100</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>[29 26 19 24 13 20 38 31 23  2 21 15 27  5 36 18 42 16 35 17  6 43 30 37
+  7  0  8 39 22 11 14 32 45 10 25  3 34 44  9 41 40 33 28  1 47  4 12 46]</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>17523</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G110" t="n">
+        <v>100</v>
+      </c>
+      <c r="H110" t="n">
+        <v>100</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>[ 3  9 23 47 25 34 44 41 30 35 36 16 42 32  6 17 27 29 26 18  5 43 19 11
+ 45 10 46 20 12 14 39  8 37  7  0 15 21  2 33 38 31 13 22 24  4 40 28  1]</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>17529</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>100</v>
+      </c>
+      <c r="H111" t="n">
+        <v>100</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>[45  6 43 10 20 46 32 17 35 19 11 30 37 39  8  7 21 40 47 31 38 12 22 33
+  2 14 26 16 42 29 36 18  5 27  0 15 13 28  1 41 23  9 44 34 25  3  4 24]</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>17587</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>100</v>
+      </c>
+      <c r="H112" t="n">
+        <v>100</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>[13 21  2 39 11 19 32 14  8 37 43 36 18  6 17 30 10 22 12 41 25  3  9 23
+ 34 44 47 31 20 42 26 16  5 29 27 35 45 46 28  1 40  0  7 15 33  4 38 24]</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>17622</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>100</v>
+      </c>
+      <c r="H113" t="n">
+        <v>100</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>[43 37  7 15  2 33 22 10 11 20 38 31 47  4 40  0 21  8 39 14 32 42 16 18
+ 26  5 36 17  6 35 45 30 27 29 46 12 41  9 34 44 23 13 24 25  3  1 28 19]</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>17709</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>100</v>
+      </c>
+      <c r="H114" t="n">
+        <v>100</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>[31 24 10 14  6 18 36  5 29 26 16 42 13 25 44 34 23  9  3  1 28 41  4 47
+ 19 35 27 39 21  7  0 15 40 22 46 20 12 33  2  8 37 30 17 43 45 32 11 38]</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>17791</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G115" t="n">
+        <v>100</v>
+      </c>
+      <c r="H115" t="n">
+        <v>100</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>[ 6 32 20 23 44  3 34 41  9 47 25  1 28  4 15 40 33 12 46 19 45 17 14  8
+  7  0 30 35 27 43 37 39 21  2 13 24 31 38 22 10 11  5 36 18 42 29 26 16]</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>17800</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>100</v>
+      </c>
+      <c r="H116" t="n">
+        <v>100</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>[20 31 47 38 24 40 28  4 41 25  9  3  1 23 44 34 46 19 29 42 16 36  5 35
+ 32 11 10 22 33 13 12 26 18 27 14  8  2 21 15  7  0 39 37  6 17 43 30 45]</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>17843</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G117" t="n">
+        <v>100</v>
+      </c>
+      <c r="H117" t="n">
+        <v>100</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>[47 23  3 25 34 44 31 46 19 10  0 21  7  5 36 35 30 15 40  2 22 33 28  1
+  9 41 14 39  8 37 17  6 43 27 26 42 16 29 18 45 32 11 12 20 38 24 13  4]</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>17909</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>100</v>
+      </c>
+      <c r="H118" t="n">
+        <v>100</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>[11 32 19 45 17 43 39 12 13 20 46 18 36 26 16 42 35  0  7  8  1  3 28  4
+ 33 40 15 21  2 22 14 37 30  6 27  5 29 10 38 31 23  9 34 44 25 41 47 24]</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>17973</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>100</v>
+      </c>
+      <c r="H119" t="n">
+        <v>100</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>[21  2  1 41 47 28 40 33 24 20 23 25  9  3 44 34  4 35 27  5 36  6 43 17
+ 14 29 42 16 26 18 19 38 31 12 13 10 22 11 46 32 45 30 37  7  0  8 39 15]</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>18150</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G120" t="n">
+        <v>100</v>
+      </c>
+      <c r="H120" t="n">
+        <v>100</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>[17  6  7  0 40 33 47 41 38 12 24  4 28  3 34 44  9 25  1 13  2 15 22 10
+ 32 19  5 18 27 31 23 20 46 11 39 21  8 37 14 45 30 43 35 29 42 16 26 36]</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>18201</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>100</v>
+      </c>
+      <c r="H121" t="n">
+        <v>100</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>[32 35 17  6 27 29 36 18 16 26  5 42 19 12 46 43 30 14 24  4 47 34 44 23
+ 21  7 37 45 13 33 28 40 15  0  2  8 39 22  1 41  3 25  9 31 38 20 10 11]</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>18268</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G122" t="n">
+        <v>100</v>
+      </c>
+      <c r="H122" t="n">
+        <v>100</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>[44  3 25 41  4 13 22 12 11 14 10 20 24 33  2 40 28  1 47 27 36  5 35 32
+ 45 39  0  8  7 15 21 37 30 43  6 29 17 46 31 19 26 18 16 42 38 23  9 34]</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>18280</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>100</v>
+      </c>
+      <c r="H123" t="n">
+        <v>100</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>[37  0 22 12 13 33  3 25 34 44  9 41 28  2 21 11 19 18 16 42 27  6 43 30
+ 45 32 29 26 36  5 46 38 31 23  1 40 15  8  7 39 14 10 20 24 47  4 35 17]</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>18430</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>100</v>
+      </c>
+      <c r="H124" t="n">
+        <v>100</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>[ 0 37 18 26 16 42 29 12 13 10 11 14 21 33 47  4 41 28  1  3 34 44  9 25
+ 38 20 46 19 43 45 32 23 31 24 40 15  7 39  2 22  5 36 27 35 17  6 30  8]</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>18474</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G125" t="n">
+        <v>100</v>
+      </c>
+      <c r="H125" t="n">
+        <v>100</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>[31 38 36  5 29 42 26 16 18 47  1  3 25 33 19 45 43 17  8 30 37  7  0 39
+ 11 14 10 12 32  6 27 35 46 20 24 13 22  2 15 21 40 28  4 23  9 44 34 41]</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>18478</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>100</v>
+      </c>
+      <c r="H126" t="n">
+        <v>100</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>[10 11 14 45 32 43 30 37  8 39 13 33  4 28 47 20 12 21 15  7  0 46 19 42
+ 26 16  5  2 40 24 38 31 23 25  1 41  3 34 44  9 35 17  6 18 36 29 27 22]</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>18503</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>100</v>
+      </c>
+      <c r="H127" t="n">
+        <v>100</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>[35  6 27 30  7  0 21 14 32 11 10 12  2 40 15 45 36 18 16 42 20 46 31 47
+ 23 34  9 44 41  4 24 17 43 37  8 39 22 13 33 28  1  3 25 38 19 29 26  5]</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>18515</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>100</v>
+      </c>
+      <c r="H128" t="n">
+        <v>100</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>[39  8 37  7 29  5 42 16 47 41  3 25 34 44  9 23 12 30 36 18 26 17 43  2
+ 33 22 10 32 45 35  6 27 19 20 31  4 28  1 40 15 21  0 13 38 24 46 11 14]</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>18522</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>100</v>
+      </c>
+      <c r="H129" t="n">
+        <v>100</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>[ 1 28 30 17 29  5 27  6 45 14 32 36 18 26 16 42 19 12 24 22 33 13  2 11
+ 39 15 21 40  4  9 25  3 41 38 46 10  8  0  7 37 35 43 20 31 23 34 44 47]</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>18586</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>100</v>
+      </c>
+      <c r="H130" t="n">
+        <v>100</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>[18 19 46 20 31 44  9 23 38 24 10 42 16 26 32 12 13 11 35 27 45 14  8  0
+  7 17  6 43 30 37 39 22  2 28 33  4 47 41 25  3 34  1 40 15 21 29  5 36]</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>18610</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>100</v>
+      </c>
+      <c r="H131" t="n">
+        <v>100</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>[37 30 45 14 39 22 12 24 46 10 11 35 32 19 13 47  4  2 21  0  7  6  5 36
+ 29 16 42 20 31 38 23  9 28 40 15 33 41  1 25  3 34 44 26 18 27 17 43  8]</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>18612</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G132" t="n">
+        <v>100</v>
+      </c>
+      <c r="H132" t="n">
+        <v>100</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>[11 14 29 36  5 45 10  4 23 44 34  3 41 47  9 25  1 28 15  7  0 21 12 22
+  2 13 24 35 18 26 16 42 27 43 30 37  8 38 31 20 33 40 39 17  6 32 19 46]</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>18687</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>100</v>
+      </c>
+      <c r="H133" t="n">
+        <v>100</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>[ 6 43 30  8  7  0 39 37 19 11 14 45 17 16 42 15 21  2 32 35 31 23 38 12
+ 13 22 40 28 24 46 20 47  9 44 34  3 25 41  4  1 33 10  5 18 26 29 36 27]</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>18806</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G134" t="n">
+        <v>100</v>
+      </c>
+      <c r="H134" t="n">
+        <v>100</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>[24 28  4 47 38 13 22 11  2 40  1 25  3  9 46 45  5 36 18 32 14 37 30 43
+ 27 17  8  7  0 15 33 21 39 42 16 26 29  6 35 19 23 44 34 41 31 20 12 10]</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>18836</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>100</v>
+      </c>
+      <c r="H135" t="n">
+        <v>100</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>[ 7  0 21 32 20 38 31 29 42 16 18 27  6 14  2 33 12 19 26  5 36 43 45 15
+ 40 28  4 47 24 13 44 34 23  9  3 25  1 41 22 10 46 35 17 37 30 11 39  8]</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>18837</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G136" t="n">
+        <v>100</v>
+      </c>
+      <c r="H136" t="n">
+        <v>100</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>[12 33 40  1 28 47  4 25  3 44 34  2 14 37 45  6 29 17 43  8  7  0 15 21
+ 32 35 19 46 38 41  9 23 31 30 27 26 16  5 42 18 36 20 10 11 39 22 13 24]</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>18887</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G137" t="n">
+        <v>100</v>
+      </c>
+      <c r="H137" t="n">
+        <v>100</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>[13 28  9 38 46 19 29 26 16 42 43 37  7  8 45 36 18  5 27  6 32 14 11 22
+ 12 47 41  3 25  4 24 40 15  0 30 35 17 39 21 10 20 31 23 44 34  1 33  2]</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>18897</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G138" t="n">
+        <v>100</v>
+      </c>
+      <c r="H138" t="n">
+        <v>100</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>[32 43 35 16 18 36  5 27 17  6 19 46 20 24 22 30 45 14 12 38  4 28  1  3
+  9 31 39  8 11 37  0  7 10 13 33  2 21 15 40 41 23 44 34 25 47 29 26 42]</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>19007</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>100</v>
+      </c>
+      <c r="H139" t="n">
+        <v>100</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>[ 2  0  7 37 30 45 43 35 27 29  5 46 44 34 25  3 41  4 24 20 31  9 23 47
+ 33 15 21  8 39 12 38 19 18 36 16 42 26 10 14 11 32  6 17 22 13  1 28 40]</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>19023</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>100</v>
+      </c>
+      <c r="H140" t="n">
+        <v>100</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>[37 30 19 11 14  4  1 41 24 46 27 45 32 39  2 33 22  6 43  5 36 18 26 29
+ 17 42 16 35 10 13 38 47 23 31 12 20 44 34  9 25  3 28 40 21 15  0  7  8]</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>19073</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>100</v>
+      </c>
+      <c r="H141" t="n">
+        <v>100</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>[19 46 20 14 43  6 27 29 42 16 26 18 28  1 44 34  9 25  3 40  2  0 21 13
+ 24  4 22 11 45 17 37  7 39 10 12 38 31 41 23 47 33 15  8 30 36  5 35 32]</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>19080</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G142" t="n">
+        <v>100</v>
+      </c>
+      <c r="H142" t="n">
+        <v>100</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>[21  7 15 40 33 39 32 35 26  5 27  6 10 46 20 38 12 19 29 18 16 42 36 30
+  0 13 24  4 41  9 44 34  3  1 28  8 37 43 17 45 11 14 31 47 25 23 22  2]</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>19120</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G143" t="n">
+        <v>100</v>
+      </c>
+      <c r="H143" t="n">
+        <v>100</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>[23  9 44 34 41 40 15 21  2 47  4 24 31 20 11 14 10 22  0  7  8 32 19 46
+ 45 17 43 30 35  5 29 38 28 25  3  1 39 37  6 27 18 36 26 16 42 12 13 33]</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>19228</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>100</v>
+      </c>
+      <c r="H144" t="n">
+        <v>100</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>[ 1 25  3 28 40 15 21 16 42 26 18 36  6 45 27  5 29 35 32 39 14 37  8  0
+  7 46 19 10 22 47  4 13  2 33 24  9 34 44 20 17 43 30 11 12 38 23 31 41]</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>19304</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>100</v>
+      </c>
+      <c r="H145" t="n">
+        <v>100</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>[46 47  9 34 44 13  2 40 15 21  7 29 36 18  6 45 43  5 42 16 26 27 17 30
+ 37  0  4 41 28  1  3 25 33  8 39 22 12 24 38 23 31 10 19 35 32 14 11 20]</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>19463</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>100</v>
+      </c>
+      <c r="H146" t="n">
+        <v>100</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>[15 39 17 16 18 35  5 36 27  6 43  8  7 40 33 28  1  4 31 12 13 47 34 44
+ 42 26 29 19 24 22 10 46 11 14 37 30 45 32 20 38 23  9 25  3 41  2  0 21]</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>19489</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>100</v>
+      </c>
+      <c r="H147" t="n">
+        <v>100</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>[26 36 18 16 17 32 46 10 12 22 13  9 23 31 20 19 43 30 37  2 33 24 28  4
+ 47 38  5  6 27  8 14 11 39 45  7  0 15  1 41 44 34  3 25 40 21 35 29 42]</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>19523</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G148" t="n">
+        <v>100</v>
+      </c>
+      <c r="H148" t="n">
+        <v>100</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>[26 42 46 12 24 13 10 22 38 40 15 21  0  7  8  4 47  2 39 30 37 43  6 18
+ 36 17 45 32 35 27  5 19 23  9  1  3 25 34 44 28 41 33 31 20 11 14 29 16]</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>19592</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G149" t="n">
+        <v>100</v>
+      </c>
+      <c r="H149" t="n">
+        <v>100</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>[ 4 28 33 13 12 39 37  7  8  0 47 40  2 22  5 36 16 42 29 35 30 15 21 45
+ 43 17  6 19 46 25  3  9 34 44 23 31 24 10 14 11 26 18 27 32 20 38 41  1]</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>19592</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G150" t="n">
+        <v>100</v>
+      </c>
+      <c r="H150" t="n">
+        <v>100</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>[26 42 22 13 24 31 44 34 41 40 15 37  7  0 21  8 14 45 32  2 33  4  1 28
+ 12  5 27 29  6 19 11 38 23  9 25  3 47 10 20 46 39 30 43 17 35 36 16 18]</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>19617</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G151" t="n">
+        <v>100</v>
+      </c>
+      <c r="H151" t="n">
+        <v>100</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>[29 26 16 42 20 46 19 32 11 14 10 12 21  0 23  9 44 25 41 37 30  5 27 18
+ 36 43 35 45 13 33  2 39 22 24 28  4 47 38 31 34  3  1 40 15  7  8 17  6]</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>19642</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G152" t="n">
+        <v>100</v>
+      </c>
+      <c r="H152" t="n">
+        <v>100</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>[36 11 39  2 40 28 12 46 35 45  0 21 15  1 25  3  9 23 44 34 41 33 37 30
+ 43 32 19 10 14 22 47  4 38 31 20 42  5 18 26 16 29 24 13  7  8 17  6 27]</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>19646</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>100</v>
+      </c>
+      <c r="H153" t="n">
+        <v>100</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>[35 45 32 19 15  0  7 30 43  6 27 46 20 38 11 14 37 39  8 21 40  1 28 41
+  3 25  9 23 31 29 36  5 26 42 44 34  4 47  2 33 22 13 24 12 10 17 16 18]</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>19794</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>100</v>
+      </c>
+      <c r="H154" t="n">
+        <v>100</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>[13 12 20 41 25  3  1 40 21  0 30 17 27 35 32 14 39 22  4 47 28 31 23 24
+ 19 42 16 18 26 36  5 29  7 15 33 10 46  9 34 44 38 11 45  6 43 37  8  2]</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>19851</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>100</v>
+      </c>
+      <c r="H155" t="n">
+        <v>100</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>[40 15  0  7 37  8 39  2 29 18 26 35 17 30 43 16 42 20 13 21 33 28 12 45
+ 32 19 46 24 44 34  9 41 22 11 27  5 36  6 14 10 38 31 47  4 23  3 25  1]</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>19883</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>100</v>
+      </c>
+      <c r="H156" t="n">
+        <v>100</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>[20 19 45 32 11 39 10 46 12 28  4 38 47 41 31 26 16 23  9 44 34  3 25  1
+ 22 21  0  7  8 35 27 42 29  5  6 37 15 40  2 18 36 17 43 30 14 33 13 24]</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>19888</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G157" t="n">
+        <v>100</v>
+      </c>
+      <c r="H157" t="n">
+        <v>100</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>[38 14 42 16  5 37 10 22 33 40  4  9 44 23 47 19 46 12 24 13  1 25  3 34
+ 41 28  7  8 30 43 11 45  6 27 35 32 39  2 15 21  0 17 26 18 36 29 20 31]</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>19987</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>100</v>
+      </c>
+      <c r="H158" t="n">
+        <v>100</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>[ 8  0 21 10 11 19 42 29  5 26 16 31  9  3 25  2 13 38 23 44 34 46  6 35
+ 17 27 36 18 43 30 39 40 28  1 41 47  4 32 45 14 22 20 12 24 33 15  7 37]</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20036</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>100</v>
+      </c>
+      <c r="H159" t="n">
+        <v>100</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>[ 5 29 45 13 28  4 22 14 11 46 12 20 31 23 38 24  0  7 43 17 32 39 40  1
+ 41  9 44 34 25  3  2  8 26 42 16 35 27  6 30 37 21 15 33 47 10 19 36 18]</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20043</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G160" t="n">
+        <v>100</v>
+      </c>
+      <c r="H160" t="n">
+        <v>100</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>[21 36 18 16 26 42 31 44 34  3 25  1 47 20 43 17  6 27 30 39 37  0 15 40
+ 13 28  9 23 41  4 19 32 29  5 35  8  7 45 14 11 22 10 33 24 38 12 46  2]</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20063</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>100</v>
+      </c>
+      <c r="H161" t="n">
+        <v>100</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>[10 38 12 27  6 14  1 44  9 34  3 25 41 23 31 20 47 28 13 22  0  8 37 43
+ 17 32 35 30  7 21 15 40  2 45 19 11 39 33  4 24 46 42 36 18 16 26  5 29]</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20074</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>100</v>
+      </c>
+      <c r="H162" t="n">
+        <v>100</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>[45  8 11 14 37  7  0 21 30 43 17 27 16 18  6 35 10 19  5 36 20 25  3  9
+ 31 23 44 34 41  1 28 38 24 12 22  2 40 15 29 26 42 46 13 47  4 33 32 39]</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20094</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G163" t="n">
+        <v>100</v>
+      </c>
+      <c r="H163" t="n">
+        <v>100</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>[43 45 17  6 35 27 16 26 18 36  5 46 12 24  1  3 25 28 21 15  0  2 10 19
+ 42 29 30  8 37 39 14 22 33  4 47 23 44 34 20 11  7 40 13 38 31  9 41 32]</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20187</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>100</v>
+      </c>
+      <c r="H164" t="n">
+        <v>100</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>[ 8 21  2 10 19 29 18 36 35 32  6 17 27  5 26 16 42 31 38 20 12 46 43 37
+ 39  4 47  1 28 45 14 22 24 33 13 11 15 40 41 23  9 25  3 44 34  0  7 30]</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20241</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G165" t="n">
+        <v>100</v>
+      </c>
+      <c r="H165" t="n">
+        <v>100</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>[ 5 29 17  0 40 15 46  4  9  3 25 41 47 31 20 12 14  8 39  2 21  7 37 36
+ 26 42 16 18  6 35 32 22 33 34 44 23 38 11 10 13 24 28  1 19 30 45 43 27]</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20245</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G166" t="n">
+        <v>100</v>
+      </c>
+      <c r="H166" t="n">
+        <v>100</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>[11 45  8 39  1 41  9 23 12 36 18 27 35 32 19  5 29 26 16 42 14 40 28 25
+ 34  3 44 20 46 10  7 13 24 38 31 47  4 33 15 21 22  2  0 37 30 43 17  6]</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20252</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G167" t="n">
+        <v>100</v>
+      </c>
+      <c r="H167" t="n">
+        <v>100</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>[10 42 16 26 39  2 40 33 13 11 29 36 18  5 32 14  0 21 22 12 20 35 27 19
+ 31 23  9 44 34 41 38 17  6 30  8 15  7 37 43 45 46 47  3 25  1 28  4 24]</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20333</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G168" t="n">
+        <v>100</v>
+      </c>
+      <c r="H168" t="n">
+        <v>100</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>[ 5 35 29 26 18 36 27 11 20 38 47 41  1 40 15  8  0  2 39 13 24 31 25  4
+ 12 46 45 43 17 32 14 19 10 22 33 23  9 44 34  3 28 21 42 16 37  7 30  6]</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20359</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>100</v>
+      </c>
+      <c r="H169" t="n">
+        <v>100</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>[14 20 32 35  5  6 17 43 30 37  0 15 22 10 12 24 13 28  4 41  9  1  3 25
+ 11 29 26 16 36 18 39 21  2 40 33 46 19 38 47 23 34 44 31  7  8 27 42 45]</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20412</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G170" t="n">
+        <v>100</v>
+      </c>
+      <c r="H170" t="n">
+        <v>100</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>[26 36 18 27  6 19 33  4 47 38 12 11 13 28  1 40 39 45 30  5 29 46 41 25
+  3 15  7  0 21  2 10 14 32 35 17 43 37  8 22 24 31 23  9 44 34 20 42 16]</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>20415</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G171" t="n">
+        <v>100</v>
+      </c>
+      <c r="H171" t="n">
+        <v>100</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>[33 40  2 22 11 14 39 10 12 13 46 35  5 36 18 17  7  0 20 31 23  9 34 44
+  3 25 41 19 29 27  4 47  1 28 24 42 16 26  6  8 15 21 37 43 30 45 32 38]</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20434</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G172" t="n">
+        <v>100</v>
+      </c>
+      <c r="H172" t="n">
+        <v>100</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>[13 33 28 41  9 44 19  5 27 17  7 39 22 10 29 35  6 43 32 45 37  8  0 21
+ 15 40  2 38 24  4 47  1  3 25 34 23 42 16 18 36 26 46 20 31 12 30 11 14]</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20472</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G173" t="n">
+        <v>100</v>
+      </c>
+      <c r="H173" t="n">
+        <v>100</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>[28 10 11 14  8 23 44 34 31 38 16 18  5 19 45 27  6 37  7  0  2 24 39 43
+ 17 32 30 15 40 33 21 35 36 42 26 29 46 20 12 22 13 47  4  1  3 25  9 41]</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20494</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G174" t="n">
+        <v>100</v>
+      </c>
+      <c r="H174" t="n">
+        <v>100</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J174" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>[25  4 22 19 32 11 45 30 39  8  0 15 40 47 38 31 20 12 43  6  5 42 29 37
+  7 21 28  1 41  9 24 10 17 36 18 27 35 46 13 33  2 14 26 16 23 44 34  3]</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20547</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>100</v>
+      </c>
+      <c r="H175" t="n">
+        <v>100</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>[23 41 47  2 22 21 15 40 33 38 13 24  5 36  4 34 44 31 35 27 29 42 16  6
+ 43 37  7  8 30 17 18 26 19 46 12 10 32 45 14  0 39 11 20 28  1  9  3 25]</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20656</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G176" t="n">
+        <v>100</v>
+      </c>
+      <c r="H176" t="n">
+        <v>100</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>[43 11 14 12 13  4  3 25 42 16 26 36 18  6  8  7 37 45 46 31  9 34 44 23
+ 38 47 41  1 28 20 19 32 39 22 10 24  2 15 21 35 27  5 29 17 33 40  0 30]</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20660</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G177" t="n">
+        <v>100</v>
+      </c>
+      <c r="H177" t="n">
+        <v>100</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>[13 12 17  5 29 35 14 20 34 44 25  3  9 23  1 28  4 40 21 15 39  0 30  6
+ 11 10 32 19 46 47 41 16 18 36 45 26 42 27 43  8 37  7  2 33 22 24 31 38]</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20711</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G178" t="n">
+        <v>100</v>
+      </c>
+      <c r="H178" t="n">
+        <v>100</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J178" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>[ 4 47 28 33 32 43 37 30  7  8  2 24  1  9 34 44 13 22 39  0 21 14 45  6
+ 17 26 16 20  3 25 41 12 10 11 46 19 27 35  5 18 36 42 29 15 40 38 31 23]</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20952</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G179" t="n">
+        <v>100</v>
+      </c>
+      <c r="H179" t="n">
+        <v>100</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>[27  5  6 35 19 46 31 38 18 36 43 37 23 34 44 42 16 26 29 14 13  4  9  3
+ 25 41  2 21  0  7  8 39 22 12 20 33 15 40  1 28 47 24 10 11 32 45 30 17]</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20994</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G180" t="n">
+        <v>100</v>
+      </c>
+      <c r="H180" t="n">
+        <v>100</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J180" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>[ 5 26 42 23 34 44 31 19 32  0 22  2 21 15 40 33 13 12  4 47 46 29 16 18
+ 36 27 45 39 10 24 28 41 38 20 11 14  9 25  3  1  7  8 37  6 17 43 30 35]</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>21009</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G181" t="n">
+        <v>100</v>
+      </c>
+      <c r="H181" t="n">
+        <v>100</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>[ 8 39 22  2 21 10 12 46 20 31 44 23 24 17 36 18 35 14 28  1  4 13 11 32
+ 30 37 45 43  5 16 42 26 27 29  6 47 41 25  3 34  9 38 19  0 15 33 40  7]</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>21012</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>100</v>
+      </c>
+      <c r="H182" t="n">
+        <v>100</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J182" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>[28  1 13 22 11 14  0  8 37 30 43 45 32 12 46 19  5 42 24 47 33  2 39 10
+ 20 23 44 34 25  3 21 15 38  9 41  4 40  7 17 27 18 26 16 36 29  6 35 31]</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>21067</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G183" t="n">
+        <v>100</v>
+      </c>
+      <c r="H183" t="n">
+        <v>100</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J183" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>[15  7  8 33 41 25  3  1 23  4 39  0 31 38  9 34 44 46 19  5 36 18 29 27
+ 11 14 43  6 26 16 42 32 20 10 35 17 30 37 45 13 28 47 24 22 12  2 21 40]</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>21076</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G184" t="n">
+        <v>100</v>
+      </c>
+      <c r="H184" t="n">
+        <v>100</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>[30  8 11 19 45 17 27  5 26 16 32 38 47  3 25  1 42 29 35 14 10  4 41 31
+ 20 46 12 13 40 33 39  2  0 21 15 22 24 23 34 44  9 28  7 37 43 36 18  6]</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>21197</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>100</v>
+      </c>
+      <c r="H185" t="n">
+        <v>100</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>[28 13 36 18 16 26 42 46  4 47 41 40 15 21 39  0  7 37 30 43 17 32 23 44
+ 31 20 10 11  5 29 35 19  6 27  2 12 38 24 22 14 45  8 33  9 34 25  3  1]</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>21257</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>100</v>
+      </c>
+      <c r="H186" t="n">
+        <v>100</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>[28  8  7 37  0  2 14 45  6 43  4 47 24 19 17 30 32 10 38 41 34 44 20 46
+ 16 42 15 40 33 22 11 35 29  5 18 26 36 27 39 21 13 12 31 23  9 25  3  1]</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>21267</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G187" t="n">
+        <v>100</v>
+      </c>
+      <c r="H187" t="n">
+        <v>100</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J187" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>[23 31 42 16 12 13 22  0 21 15  7  2 40  8 35 29  5 18 36 27  6 26 14 39
+ 45 17 30 37 25  3 34 44 46 19 10 11 43 32 20 38 24 47 33 28  4  1 41  9]</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>21280</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G188" t="n">
+        <v>100</v>
+      </c>
+      <c r="H188" t="n">
+        <v>100</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J188" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>[38 23  9 41 28  1  3 25 33 22 42 26 16 18 32 11 14 27 36  5 29  7  8  4
+ 40 15 47 34 44 31 43  6 17 45 10 20 46 39  0 21  2 37 30 35 19 12 13 24]</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>21282</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G189" t="n">
+        <v>100</v>
+      </c>
+      <c r="H189" t="n">
+        <v>100</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>[ 2 38 25  3  9 23 31 16 18 26 42 46 20  1 41 47  4 28 13 12 24 34 44 19
+ 45 43 30 21 15 40 33 17  6 27 29 37  7  8 14 32 35  5 36  0 39 11 10 22]</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>21312</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G190" t="n">
+        <v>100</v>
+      </c>
+      <c r="H190" t="n">
+        <v>100</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J190" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>[47 38 12 22 24 13 33 40 37 11 46 20 19 42 36 18 16 26  6 27 25  3  9 41
+  1  0  7  8  2 15 21 30 29  5 10  4 28 39 32 14 45 43 17 35 31 23 34 44]</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>21449</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G191" t="n">
+        <v>100</v>
+      </c>
+      <c r="H191" t="n">
+        <v>100</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>[23  5 36 29 32 22  2 13 24 12 31 47  3 25 34 40 15  8 21  0  7 17 27  6
+ 43 45 14 46 19 18 16 42 11 38 20 10 39 37 30 26 35 33 28  4  1 41 44  9]</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>21450</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G192" t="n">
+        <v>100</v>
+      </c>
+      <c r="H192" t="n">
+        <v>100</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J192" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>[33 22  2 15 39 29 42 16 26 18 36  6 30 40  3 25 46 19 14 11 20 24  1 28
+ 41  9 31 35 17 45 32 13 23 44 34  4 47 38 12 10  8 37  5 27 43  0  7 21]</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>21615</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G193" t="n">
+        <v>100</v>
+      </c>
+      <c r="H193" t="n">
+        <v>100</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J193" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>[ 7  8 12 20 46 45 30 43 37 10 11 19 29 36 18 27 41  9  4 34 44 25  3  0
+ 21 39  2 33 28 47  1 23 14 32  6 42 16 26  5 35 17 22 13 24 31 38 40 15]</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>21636</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G194" t="n">
+        <v>100</v>
+      </c>
+      <c r="H194" t="n">
+        <v>100</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J194" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>[26 16 42 29  5 27 43 30 37  7  8 17  6  3 25  9 41 38 20 18 36 31 23 44
+ 34 19 35 45  0 21 12 24 33 15  2 22 10 11 39 14 32 13 40  1 28 47  4 46]</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>21662</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G195" t="n">
+        <v>100</v>
+      </c>
+      <c r="H195" t="n">
+        <v>100</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>[ 6 27  5 18 36 29 23 44 34  3 41 15  0 37 45 32 11 24 46 19 26 16 42 25
+  9 38 12 10 14 40  1 28 33 22 13  2 21  8  7 30 17 35 20 31  4 47 39 43]</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>22026</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G196" t="n">
+        <v>100</v>
+      </c>
+      <c r="H196" t="n">
+        <v>100</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J196" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>[15 40 28  1 25 41 20 46 29 26 36 27  6 37  2 33 21  8 13  3 34 44 35 43
+ 17 45 24 47  4 12 22 39  0  7 30  5 18 16 42 10 31  9 23 38 19 11 32 14]</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>22414</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>100</v>
+      </c>
+      <c r="H197" t="n">
+        <v>100</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J197" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>[37 43 19 12 38  4  1 41  9 34 23 24 35 26 29  5 36 16 42 20 31 47 13 39
+  8 27 18 45 14 10 33 22 17  6 44  3 25 28 40  7 30 32 46 11  2 15 21  0]</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>22423</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>100</v>
+      </c>
+      <c r="H198" t="n">
+        <v>100</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>[ 5 37  7 32 45 21 40 15  2 33 47 41 31 38 20 13 12 10 22 11 46 19 16 18
+ 36  6 30 43 35 42 26 27 39 28  1  9 23 24  4  8  0 44 25  3 34 14 17 29]</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>22468</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>100</v>
+      </c>
+      <c r="H199" t="n">
+        <v>100</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J199" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>[24 47 14 19 42 16 26 30 37  0  4 41 44 34  3  1 40 29  5 18 36  6 27 35
+ 32 10 28 25  9 33  8 31 23 38 20  7 21 15  2 39 43 17 45 11 12 46 22 13]</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>22542</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G200" t="n">
+        <v>100</v>
+      </c>
+      <c r="H200" t="n">
+        <v>100</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J200" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>[30 43 17  6 42 31 41  3 38 16 36  8 37 13 12 10 39 22 11 32 14 45 35 29
+  2 40 28  1 25 34 44  4 33 21 15  7  0 27  5 18 26 20 23  9 47 24 46 19]</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>22705</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G201" t="n">
+        <v>100</v>
+      </c>
+      <c r="H201" t="n">
+        <v>100</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J201" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TSP/Solutions/SA.xlsx
+++ b/TSP/Solutions/SA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:J301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9085,6 +9085,4306 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>[ 3 25 47 10 21 40 15  0  7 37 30  5 18 16 26 22 12 46 11 14 45 32 29 42
+ 35 17 27 36  6 43 39  8  2 24 13 33 19 20 31 38  4  1 28 41 23  9 44 34]</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>16584</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G202" t="n">
+        <v>100</v>
+      </c>
+      <c r="H202" t="n">
+        <v>100</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J202" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>[25 41  1  4 28 24 12 13 33  2 21 39  5 36 27 37  8 30 43 26 16 42 18 29
+ 46 31 38 10 19 32 17  6 35 45 14 22 40 15  7  0 11 20 47 23  9 44 34  3]</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>16616</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G203" t="n">
+        <v>100</v>
+      </c>
+      <c r="H203" t="n">
+        <v>100</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J203" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>[ 1 22 14 30 37  8  0  7 21 15 40 13 20 46 45 43  6 26 36  5 35 39  2 33
+ 10 11 32 29 42 16 18 27 17 19 12 38 24  4 28 25  3 34 44 23 31 47  9 41]</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>16657</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G204" t="n">
+        <v>100</v>
+      </c>
+      <c r="H204" t="n">
+        <v>100</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>[29 18  5 26 42 16 36  8 40  1 28  4 20 17  6 43 30 14  0 21 15  7 37 39
+ 45 27 35 19 38 23 44 34 25  3  9 41 47 31 13 33  2 22 24 12 10 46 11 32]</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>16950</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G205" t="n">
+        <v>100</v>
+      </c>
+      <c r="H205" t="n">
+        <v>100</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J205" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>[ 2  4 28 33 40 13 24 12 14 45 17 35 27 29 18  5 36 16 26 42  6 43 41  1
+ 34 44 23  9  3 25 47 19 11 10 38 31 20 46 22 21 15  7 37 30 32 39  8  0]</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>17185</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G206" t="n">
+        <v>100</v>
+      </c>
+      <c r="H206" t="n">
+        <v>100</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>[44  9 23 38 20 14 32 39 15  7 37 43 33 47  4 28 24 13 12 10 11 46 22  2
+ 40 21  0  8 17 45 27 30  6  5 29 42 18 36 26 16 35 19 31 41 25  1  3 34]</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>17304</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G207" t="n">
+        <v>100</v>
+      </c>
+      <c r="H207" t="n">
+        <v>100</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>[ 3  1 28 33 40 24 12 46 10 11 45 21  2 13  4 47  9 44 34 23 31 22 32 42
+ 16 26  5 30  8  7  0 15 27 29 18 36 43 37 39 14  6 17 35 19 20 38 41 25]</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>17321</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>100</v>
+      </c>
+      <c r="H208" t="n">
+        <v>100</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>[25 47  4 33 13 12 20 31 38 24 40 15 21  7  8  0 46 19 11 39 37 30 16 42
+ 29  5 18 26  6 17 43 35 14 45 32 36 27  2 41  3 34 44  9 23 22 10 28  1]</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>17727</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>100</v>
+      </c>
+      <c r="H209" t="n">
+        <v>100</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J209" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>[21  0  7  8 39 37 30  6 35 36 18 26  5 27 17 43 22 13 12 46 10 24 47  4
+ 38 32 11 20 23  9 44 34  3  1 15 40 33 28 25 41 31 19 29 42 16 45 14  2]</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>17755</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>100</v>
+      </c>
+      <c r="H210" t="n">
+        <v>100</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J210" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>[29 14 12 13 41 34 44 23  9 28  1  3 25 33  7 37 39  8  0 21  2 22 10 11
+ 32 17 30 45 24  4 47 38 31 20 46 19 40 15 35 27  5  6 43 36 18 16 42 26]</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>17802</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>100</v>
+      </c>
+      <c r="H211" t="n">
+        <v>100</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>[30 45 24 33 40  7 37 36  5 29  6 43 27 35 14 12 47  4 28 13 15 21 22  2
+  0  8 39 19 46 20 38 31 25 34 44  9 23 41  3  1 10 11 32 18 26 16 42 17]</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>18030</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>100</v>
+      </c>
+      <c r="H212" t="n">
+        <v>100</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J212" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>[26 16 36  5 29 18 27  6 17 35 32 43 45 12 33 24 38 47  4 40 28  1 41  2
+ 22 13 23 44  9 25  3 34 46 10  7 15 21  0 37 30  8 39 14 11 20 31 19 42]</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>18061</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>100</v>
+      </c>
+      <c r="H213" t="n">
+        <v>100</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J213" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>[20 26 16 42 19 32  5 43 17 35 45  0 21  2 39 14 11 10 33 15  7  8 37 30
+  6 27 36 18 29 46 12 22 13 47  4 25  3 34  9 41 40 24 31 38 28  1 44 23]</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>18147</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>100</v>
+      </c>
+      <c r="H214" t="n">
+        <v>100</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J214" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>[26 42 35 30 43  6 17 45 14 10 24 38 13 22  2 15  7 21 40  4  1 28 41 25
+  3  9 12 11 32 36  5 27 37 39 33 47 23 34 44 31 20 46  8  0 19 29 18 16]</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>18186</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>100</v>
+      </c>
+      <c r="H215" t="n">
+        <v>100</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J215" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>[ 4 47 24 13 12 19 32 11 14 35  6 30  0  2 22 20 10 45 39 21  8 43 36 18
+ 16  5 27 29 26 42  1 25  3 44 23 41  9 34 31 38 46 17 37  7 15 40 33 28]</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>18218</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>100</v>
+      </c>
+      <c r="H216" t="n">
+        <v>100</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J216" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>[45 43  6 35 17 30 37  8  0  7 40 33  2 13 12 20 19 32 26 18 36 29 39 24
+ 22 10 42 16  5 27 21 15 11 46 31 23 44 34 25  9 41  1  4 28  3 47 38 14]</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>18241</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G217" t="n">
+        <v>100</v>
+      </c>
+      <c r="H217" t="n">
+        <v>100</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J217" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>[37 43  6 27 17 35 19 12 46 26 16 42 45 14 39 11 32  5 36 18 29 10  4 47
+ 23 34 44  9 41 33 40 15  2 24 13 22 21  0  7 30  8 28  1  3 25 31 38 20]</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>18294</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G218" t="n">
+        <v>100</v>
+      </c>
+      <c r="H218" t="n">
+        <v>100</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J218" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>[43  6 27 17 39 21 15 40 33  2 13 22 10 29 35 46 25  3  9 23 47  4 20 24
+ 38 41  1 28 34 44 31 12  7  0 30 45  5 36 18 16 26 42 19 11 32 14  8 37]</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>18449</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>100</v>
+      </c>
+      <c r="H219" t="n">
+        <v>100</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>[13 20 46 12 33  0  8  7 15 21 25  3  9 23 41 22 10 11 14 39 37 32 17 29
+ 36 18 26 16 19 40  2 45 30 43 35  6 27  5 42 31 44 34  1 28  4 47 38 24]</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>18511</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G220" t="n">
+        <v>100</v>
+      </c>
+      <c r="H220" t="n">
+        <v>100</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J220" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>[31 38 47  4  9 24 12 22 21 27 17 43 45 32 11 14 10 39  7 30 37  0  8  6
+ 29 26 18 36  5 35 20 23 25  3 34 44 41 28  1 40  2 15 33 13 46 19 42 16]</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>18554</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G221" t="n">
+        <v>100</v>
+      </c>
+      <c r="H221" t="n">
+        <v>100</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J221" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>[15 23 44 34  9 25  3 45 35  6 43 27  5 42 36 26 18 16 29  8 39 22 46 19
+ 20 12  4 28 41 47 31 38 24 10 11 40  1 33 13 32 14 17 30 37  7  0  2 21]</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>18726</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G222" t="n">
+        <v>100</v>
+      </c>
+      <c r="H222" t="n">
+        <v>100</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J222" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>[10 14 45  8  0 37 35 17 46 13 40  2 27 30  7 21 15 33 23  9 44 34  3 25
+  1 41 28 47  4 31 22 42 16  5  6 29 18 26 36 43 39 38 12 24 20 19 32 11]</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>18750</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G223" t="n">
+        <v>100</v>
+      </c>
+      <c r="H223" t="n">
+        <v>100</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J223" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>[26 37  0 15 21  2 40 33 29 36 18  5  8  7 30  6 27 19 31 47 38 24 12 13
+ 20 10 22 39 11 14 45 17 35 43 32  4  1 28 41 44 34  3 25  9 23 46 16 42]</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>18759</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G224" t="n">
+        <v>100</v>
+      </c>
+      <c r="H224" t="n">
+        <v>100</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J224" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>[35  0  2 15  7 37 14 12 23 44 34  9 32 45 21 40 28  1  3 25 41 33 46 20
+ 31 38 47  4 19 43 29 26  5 36 18 16 42 11 13 24 22 10 39  8 30  6 17 27]</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>18801</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G225" t="n">
+        <v>100</v>
+      </c>
+      <c r="H225" t="n">
+        <v>100</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>[47 23 34 44 35 18  5 16 42 26 36 29 17 43 45  2 15 21  7  0 40  1 28 13
+ 24  4 41  9  3 25 33 30 27  6 37  8 39 14 19 20 38 12 22 10 32 11 46 31]</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>18821</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>100</v>
+      </c>
+      <c r="H226" t="n">
+        <v>100</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J226" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>[37  7 30 43 35  0 21 10 11 27 42 16  5 17 15 40 33  2 12 24 13 46 20 38
+ 31 41 23 19 32 39  8  1 25  3 34 44  9  4 47 28 22 14 45 29 26 18 36  6]</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>18846</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G227" t="n">
+        <v>100</v>
+      </c>
+      <c r="H227" t="n">
+        <v>100</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J227" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>[29 36 18  5 20 24  4 47 38 12 46 21  2 39 14 32 19 11  8  7 15 43 16 42
+ 26 27  6 17 30 45 10 31 23 25 41 28 40 22 13  9 44 34  3  1 33  0 37 35]</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>18921</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G228" t="n">
+        <v>100</v>
+      </c>
+      <c r="H228" t="n">
+        <v>100</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>[21 33  2  0  8 19 20 44 34  9  3 25 28 22 10 39 37 43 35 26 16 42 29 27
+ 30 17  6 36 18  5 31 38 47  4 24 46 14 32 45 11  7 15 40  1 23 41 13 12]</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>18937</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G229" t="n">
+        <v>100</v>
+      </c>
+      <c r="H229" t="n">
+        <v>100</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J229" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>[35 45 30 43 17  6  7 15 40 33  4  3 25 34 24 13 46 19 11 32 37  0  8 21
+  9 44 23 38 22 39  2  1 41 28 47 31 20 12 10 14 42 16 36  5 27 29 18 26]</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>18966</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G230" t="n">
+        <v>100</v>
+      </c>
+      <c r="H230" t="n">
+        <v>100</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J230" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>[27 18  6 43 30 39  8  0  7 17 36 35 14 19 46 12  4 41 28 47 13 24 23  9
+  3 25 31 20 29  5 26 16 42 37 21  2 15 40  1 34 44 38 33 22 10 11 32 45]</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>18974</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G231" t="n">
+        <v>100</v>
+      </c>
+      <c r="H231" t="n">
+        <v>100</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J231" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>[ 5 27  6 35 20 31 12 47  4 28 41  9 25 34  3  1 40 21 39 11 14 10 22 24
+ 23 44 19 26 29 32 33 13 38 46 45  8  0  7 15  2 37 30 43 17 36 18 16 42]</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>18993</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G232" t="n">
+        <v>100</v>
+      </c>
+      <c r="H232" t="n">
+        <v>100</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J232" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>[43  6 27 29 17 35 30 37  8  2 10 11 45 32 14 22 13 12  4 24 20 46 39 33
+ 31 38 19 16 42 26 18 36  5  7  0 15 40 28 44 34 47  9 23 25  3 41  1 21]</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>19028</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G233" t="n">
+        <v>100</v>
+      </c>
+      <c r="H233" t="n">
+        <v>100</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>[42 29 45  7  8 15  2 40  4 47 41  1 28 24 23 44 34 31 38  9  3 25 20 17
+ 18 16  5  6 30 37 43 27 36 19 10 21  0 39 14 46 12 22 33 13 11 32 35 26]</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>19161</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G234" t="n">
+        <v>100</v>
+      </c>
+      <c r="H234" t="n">
+        <v>100</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>[43 37  8  7  0 40 33  2 39 22 10 45 27 30 28  1 25 41 47 31 38 13 21 15
+ 23 44 34  3  9 20 11 14 32 19 46 24  4 12 42 26  5 29 17  6 35 36 18 16]</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>19226</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G235" t="n">
+        <v>100</v>
+      </c>
+      <c r="H235" t="n">
+        <v>100</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>[ 1 13 12 24 10 14 11 32 29  5 36 27 35 20 31 38 23 44 34 25  9 47  4 28
+ 33  0  7 30 45  6 17 19 46 40 21  8 15  2 39 22 37 43 26 18 16 42 41  3]</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>19231</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G236" t="n">
+        <v>100</v>
+      </c>
+      <c r="H236" t="n">
+        <v>100</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>[20 26 29 27  5 19 13 31 38 47 46 42 18 16 36 30 37  8 14 32 22 12 23 34
+ 44  9 10 11 45 17 35  6 43 39 40 33 15  7  0 21  2 28  1  3 25 41  4 24]</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>19282</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G237" t="n">
+        <v>100</v>
+      </c>
+      <c r="H237" t="n">
+        <v>100</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>[39 14 10 46 22 13  4 24 12 42 26 35 27 36 18 16 31 38 20 17  5  6 30  8
+ 37 21 28 47 23  9 25  3 34 44 41  1 15 40 33  2 43 29 45 32 19 11  7  0]</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>19309</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G238" t="n">
+        <v>100</v>
+      </c>
+      <c r="H238" t="n">
+        <v>100</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>[27 35 17  8  7  0 40 33 28 38 31 29 36 18  5 39 21  2 15  1 13 22 11 32
+ 20 24 47  4 41 34 25  3  9 44 23 12 14 37 30 43 45  6 19 46 10 42 16 26]</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>19330</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G239" t="n">
+        <v>100</v>
+      </c>
+      <c r="H239" t="n">
+        <v>100</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>[24 13 40  2 10 14 30 43 17 45  8 39 21 22 12 19 18  5 27  6 32 23 25  3
+ 44 34  9 41 31 38 20 46 11 36 26 16 37  7 15  0 35 42 29  4 47  1 28 33]</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>19403</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G240" t="n">
+        <v>100</v>
+      </c>
+      <c r="H240" t="n">
+        <v>100</v>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J240" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>[10 32 45 14 46 12 19 42 36 18 16 26  5  7 15  2 21  0 17 35 29 20 31 23
+ 34 44 38  8 37 39 40 33 13 22 30 43 27  6 11  4 28  1  3 25 41  9 47 24]</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>19461</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G241" t="n">
+        <v>100</v>
+      </c>
+      <c r="H241" t="n">
+        <v>100</v>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>[32 14 40 28  3 34 44 41 31 19 30 37 39 10 20 23  9 25  1 24 12 43 17  6
+ 27 45 11  2 33 46 42 26 16 18 36  5 29 35 22 13 38 47  4 15 21  0  7  8]</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>19466</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G242" t="n">
+        <v>100</v>
+      </c>
+      <c r="H242" t="n">
+        <v>100</v>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J242" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>[39 37 30 14 32 46 11 10 20 23  9 41  3 25  1 28 12 35 45 17 43 27  5 29
+  6 31 44 34 24 22 19 42 16 26 18 36 38  4 47 13 21  0  8  7 15 40 33  2]</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>19579</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G243" t="n">
+        <v>100</v>
+      </c>
+      <c r="H243" t="n">
+        <v>100</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J243" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>[45 30  0  8 39 21  2 10 25  3  9 38 20 46 19 35 43 27 17  5 36 18 26 42
+ 29 16 23 44 34 31 32 11 28  1 41  4 47 24 22 12 13 40 33 15  7 37 14  6]</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>19604</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G244" t="n">
+        <v>100</v>
+      </c>
+      <c r="H244" t="n">
+        <v>100</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J244" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>[46 31 22  2  0 37 35 26 16 42 30 45 11 14  8  7 29  6 43 17 36 18  5 27
+ 32 13 40 33 24 28  1  4 20 38 12 19 47 41 44 34  3 25  9 23 10 39 21 15]</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>19648</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G245" t="n">
+        <v>100</v>
+      </c>
+      <c r="H245" t="n">
+        <v>100</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J245" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>[ 3 25 44 34 32 19  6 29 16 18 36 45 39 43 30 37  8 15  7  0 22 33  2 21
+ 11 10 13 14 35  5 26 42 17 27 12 47 24 46 20  4 28 41  1 40 38 31 23  9]</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>19673</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G246" t="n">
+        <v>100</v>
+      </c>
+      <c r="H246" t="n">
+        <v>100</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J246" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>[40 15  0 21  2  1  3 25 31 20 12 22 28 41 23 24 19 35 17 43 30  7  8 37
+  6 11 10 13 33 44 34  9 39 14 32 45 29 27  5 26 36 18 16 42 46 38 47  4]</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>19703</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G247" t="n">
+        <v>100</v>
+      </c>
+      <c r="H247" t="n">
+        <v>100</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J247" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>[22 10 19 29 27 45 30 37 34 44 25  3 33 13 23  9 31 24  2 14 43 17  6 35
+ 46 20 12 11 42 16 26 18 36  5 32 38  4 47 41  1 28 40 15  8  0  7 21 39]</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>19710</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G248" t="n">
+        <v>100</v>
+      </c>
+      <c r="H248" t="n">
+        <v>100</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J248" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>[30 14 15 40 21 27 18 36 16 35 23  9 41 38 12 11 43  6 17 45 32 19 29 26
+  5 42  4 28  1 25  3 34 44 33  2 22 24 10 13 47 31 20 46 39  8  0  7 37]</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>19743</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G249" t="n">
+        <v>100</v>
+      </c>
+      <c r="H249" t="n">
+        <v>100</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J249" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>[27 42 29 45 21  2 41  9 25  3 34 44 20 12 22 24 38 11 10 14  0  8  7 39
+ 30 17 43 37 15 40 33 13 46 16 26 36 18  5  6 32 47  4 31 23  1 28 19 35]</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>19774</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G250" t="n">
+        <v>100</v>
+      </c>
+      <c r="H250" t="n">
+        <v>100</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J250" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>[14 19 42 26 16 29 32 11 46 24 28 15 21 35  5 20 38  4 47 31 18 36 17 43
+ 30  7  0 22 13 12 10  2 40 33 41 23  9  3 25 34 44  1 39  8 37  6 27 45]</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>19792</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G251" t="n">
+        <v>100</v>
+      </c>
+      <c r="H251" t="n">
+        <v>100</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J251" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>[ 4  3 41 12 26  5 36 29 35 27 19 20 46 14 45 32 11 10 22 39 37 43 18 16
+ 42 30  7  2 24 13 33  1 25 34 44 23  6 17  8  0 21 15 40 28 47 38 31  9]</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>19814</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G252" t="n">
+        <v>100</v>
+      </c>
+      <c r="H252" t="n">
+        <v>100</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J252" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>[24 22 21 15  7 14 20 31  9 44 34 23 38 13 29 26 42 16 27 46 10 11 35 17
+ 45 32  5 18 36 19 30  6 43 37  8  0 39  2  4 41  1 28 12 33 40  3 25 47]</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>19869</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G253" t="n">
+        <v>100</v>
+      </c>
+      <c r="H253" t="n">
+        <v>100</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J253" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>[17  7 21  8 37 14 11 19 45 30 36 26 16 18  6 15 40 13  1 28  4 23 44 34
+  9 12 22 33  2  0 39 10 32 43 42 29  5 46 20 31 38 24  3 25 41 47 27 35]</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>19886</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G254" t="n">
+        <v>100</v>
+      </c>
+      <c r="H254" t="n">
+        <v>100</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J254" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>[ 5 36 18 29 32 10 19 35 17 27 26 42 16 23 44  1 28 13 24  2 21  0 37  8
+ 39 11 14 22 33 47  4 31 12 46 20 38 41  9 34  3 25 45 43 30  7 40 15  6]</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>19903</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G255" t="n">
+        <v>100</v>
+      </c>
+      <c r="H255" t="n">
+        <v>100</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J255" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>[ 5 36 29 35 46 10 19 11 39 14  8 37 30 32 45 17  6 18 26  1 25 41  3 34
+ 44  9 42 16 20 23 47  4 28 31 38 24 12 13 22  2 21  0  7 33 40 15 43 27]</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>19912</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G256" t="n">
+        <v>100</v>
+      </c>
+      <c r="H256" t="n">
+        <v>100</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J256" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>[ 4 41  3 25 33  2 13 24 38 31 22 12 20 46 19 32 43  6 27 35 45 11 10 23
+ 44 34  9 47 21  7 30 17 29 16 36  5  8  0 39 28  1 40 15 37 18 26 42 14]</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>19923</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G257" t="n">
+        <v>100</v>
+      </c>
+      <c r="H257" t="n">
+        <v>100</v>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J257" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>[25  1 40  7 17 30 11 10 18 36  5 27 13 12 46 19 35  6 43 32 14  8 37 26
+ 16 42 29 45 39  2  0 21 15 33 41  3 23  9  4 28 24 31 38 20 22 47 34 44]</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>20007</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G258" t="n">
+        <v>100</v>
+      </c>
+      <c r="H258" t="n">
+        <v>100</v>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J258" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>[19 16 26  6 43 30  8 21 28  1  4 40 15  0 37 39 24 13 47 41 34 44 23 31
+ 38 20  5 36 18 35 11 14 45 32 33  3 25  9  2  7 17 27 29 42 10 22 12 46]</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>20244</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G259" t="n">
+        <v>100</v>
+      </c>
+      <c r="H259" t="n">
+        <v>100</v>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J259" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>[41 47  0  7  8 37 25 34 44 38 10 11 14 39 22 12 13 24  4 28 40  2 45 30
+  5 26 18 36 29 35 17 21 15 33  1  3  9 23 31 20 46 19 42 16 27  6 43 32]</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>20249</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G260" t="n">
+        <v>100</v>
+      </c>
+      <c r="H260" t="n">
+        <v>100</v>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J260" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>[ 1 28 14 45 32 22 13  2 33  4 47 24 38 31  9 23 12 10 17  6  5 27 35 46
+ 34 44 20 39  8  7 15 40 21  0 11 19 29 42 26 16 18 36 43 30 37 41 25  3]</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>20281</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G261" t="n">
+        <v>100</v>
+      </c>
+      <c r="H261" t="n">
+        <v>100</v>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J261" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>[ 8  7 15 40 33  1 28  4 47 46 45 39  2 21 22 38 24 12 19 29 26  5 43 30
+  6 27 35 31  9 20 42 16 18 36 17 41  3 25 34 44 23 13 10 32 11 14  0 37]</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>20281</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G262" t="n">
+        <v>100</v>
+      </c>
+      <c r="H262" t="n">
+        <v>100</v>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J262" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>[36 29 19 32 11 28  1 34 44 41 47 15 21 39  6 27 37 31  3 25  9 23 35 42
+ 26 16 18  5 17 43 30  7  0  8 10 22 24 12 38 20 46 13  4 33 40  2 14 45]</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>20382</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G263" t="n">
+        <v>100</v>
+      </c>
+      <c r="H263" t="n">
+        <v>100</v>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J263" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>[38  4 47  5 29 39 22 13 44 34  9 28 33 40 21  7 37 27 36 18 42 16 26 35
+ 10  1  3 25 41 23 31 24 20 46 12 30 43 45 14 11 19  2 15  0  8 17  6 32]</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>20423</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G264" t="n">
+        <v>100</v>
+      </c>
+      <c r="H264" t="n">
+        <v>100</v>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J264" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>[39 45 43 30 37  8  0  7 16 42 46 19 15 21 33 28  4 12 17 35 27  5 29 20
+ 47 34 44  9 26 18 36  6 32 14 11 10 22  2 13 24 38 31 23 41  1  3 25 40]</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>20428</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G265" t="n">
+        <v>100</v>
+      </c>
+      <c r="H265" t="n">
+        <v>100</v>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J265" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>[30 35 26  5 17  6 42 32 20 23  9 41 12 46 11 14 22 40 15  7  8 45 19 10
+ 33  4 24 31 38 47 13 39 27 36 18 16 29  1  3 44 34 25 28  2 21  0 37 43]</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>20475</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G266" t="n">
+        <v>100</v>
+      </c>
+      <c r="H266" t="n">
+        <v>100</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J266" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>[12 11 45 46 31 38 24 33  0  7 15  1 28 13 10 32 27  5 36 29 26 18  6 17
+ 43 30  8 37  3 25 41 23 47  4  2 40  9 34 44 20 19 42 16 35 14 39 21 22]</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>20574</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G267" t="n">
+        <v>100</v>
+      </c>
+      <c r="H267" t="n">
+        <v>100</v>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J267" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>[37 30 43 17 14 11 10 20 41 34 44  9  4 47 38  2 21  8  7 31 23 25  3 22
+ 32 35 29 42 39 28  1 40 15  0  6 36 18  5 16 26 27 45 33 13 24 12 46 19]</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>20593</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G268" t="n">
+        <v>100</v>
+      </c>
+      <c r="H268" t="n">
+        <v>100</v>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J268" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>[22 10 45 26 18 36  5  7  8 39 19 32 46 12 47  4  1 28  2 11 31 44 34 33
+ 37 30 43  6 17  0 21 15 40 14 35 27 42 16 29 20 41 23  9  3 25 38 24 13]</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>20601</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G269" t="n">
+        <v>100</v>
+      </c>
+      <c r="H269" t="n">
+        <v>100</v>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J269" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>[14 25  3  1  2  0  7 46 20 19 43 45 39 21 15 40 41  9 23 31 38 47 22 10
+  4 28 33 13 12 34 44 24 11 27 36 18 16 42 26  5 29  8 37 30 17 35  6 32]</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>20619</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G270" t="n">
+        <v>100</v>
+      </c>
+      <c r="H270" t="n">
+        <v>100</v>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J270" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>[45 37  7 15 21  2 13 32 30 46 20 22 19 42 16 26 27 40 33 12 11 17  6 43
+ 25  3  1 41 44 34  9 23 31 38 39  0  8 14 10 24 47  4 28  5 36 18 29 35]</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>20621</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G271" t="n">
+        <v>100</v>
+      </c>
+      <c r="H271" t="n">
+        <v>100</v>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J271" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>[11 10  6 27 26 13 24 12 20 29 42 44 34 23  9 25  3 41  1 22 39 37 43  8
+  0  7 40 33  2 15 21 14 17 35 19 46 28  4 47 38 31 45 30 16 36 18  5 32]</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>20750</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G272" t="n">
+        <v>100</v>
+      </c>
+      <c r="H272" t="n">
+        <v>100</v>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J272" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>[38 20 26 18 16 42 31 44 34 21  7  0 11 32 29  6 27 36  5 14 22 13 24 10
+ 12 46 19 45 35 17 15 40  4 25  3  1 28 33  2  8 37 30 43 39 47 41  9 23]</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>20829</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G273" t="n">
+        <v>100</v>
+      </c>
+      <c r="H273" t="n">
+        <v>100</v>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J273" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>[29 41  9  3 25 15 21 40  4 34 44 23 31 47 24 13  0 39  2 33 20 46 10 22
+ 45 43  6 26 16 42 38 28  1 12 19 32 35 17 11 14  8 37  7 30 27  5 36 18]</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>20895</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G274" t="n">
+        <v>100</v>
+      </c>
+      <c r="H274" t="n">
+        <v>100</v>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J274" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>[27 29 26  6 17 35 10 28  1 40  0  7  8 42 16 43 37 30 25 41 47 24 13  2
+ 15 21 14 32 19 39 11 46 31 38 12 22 20 33  4  9  3 34 44 23 45  5 18 36]</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>20947</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G275" t="n">
+        <v>100</v>
+      </c>
+      <c r="H275" t="n">
+        <v>100</v>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J275" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>[37 45 32 17  6 27  5 36 18 26 40 28 10 35 29 42 16 31 44 34 11 39 14 30
+ 43 19 20 38 13 33  2 21 15 47 23  9  3 25  1  4 41 46 24 12 22  0  8  7]</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>21008</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G276" t="n">
+        <v>100</v>
+      </c>
+      <c r="H276" t="n">
+        <v>100</v>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J276" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>[25  3 28 24 33 39 36 26 29 35 32 44 34  9 41  1 23 20 12 31 47 38 45 17
+ 27  5  6 43 30 37 14 11 10 22 13 40 15 19 46 16 42 18  8  0  7 21  2  4]</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>21085</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G277" t="n">
+        <v>100</v>
+      </c>
+      <c r="H277" t="n">
+        <v>100</v>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J277" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>[42 20 23 25  1 28 33 40  0  8  7 15 21  2 39 37 30 43 17 35 14 45  5 36
+ 26 16 18 12 38 24 11 10 22 13  3 34 44 31 46 32 27  6 19 47 41  9  4 29]</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>21123</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G278" t="n">
+        <v>100</v>
+      </c>
+      <c r="H278" t="n">
+        <v>100</v>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J278" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>[31 20 26 18 36  6 37 21 15 40  4  3 25  9 34 44 23  0  7 39 24 28  1  8
+ 30 43 32 11 14 35 29 42 16 19 47 41 33 13  2 22 12 10 45  5 27 17 46 38]</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>21144</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G279" t="n">
+        <v>100</v>
+      </c>
+      <c r="H279" t="n">
+        <v>100</v>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J279" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>[34  3 22 14 30 37 40 33 13 24 41 25  1 28 38 31 12  2 39  7  0 15 21  6
+ 36 18 16 42 35 32 19 11 10 47  4 23  9 20 46 29 26  5 27  8 43 17 45 44]</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>21169</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G280" t="n">
+        <v>100</v>
+      </c>
+      <c r="H280" t="n">
+        <v>100</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J280" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>[ 2 33 40 26 36 18 16  5 35 45 22 41  9  1 28 47  4 24 13 12 46 42 29 27
+ 17  6 43  7 15  0 21 31 44 34 20 19 32 11 38 23  3 25 10 39 14 37 30  8]</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>21253</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G281" t="n">
+        <v>100</v>
+      </c>
+      <c r="H281" t="n">
+        <v>100</v>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J281" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>[ 2 33 44 34  3 25  9 42 16  6 43 28 41  1 40  8 37 30 35 47  4 23 31 38
+ 10 14 29 27 36 26 18  5 17 15 13 22 24 12 20 46 11 19 32 45  0  7 39 21]</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>21301</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G282" t="n">
+        <v>100</v>
+      </c>
+      <c r="H282" t="n">
+        <v>100</v>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J282" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>[45 46 13 33  2 37 30 26 16 42 10 28  1 40 32 19 27 43  8 39 21 15  0  7
+ 22 38 47  4 41 25  3 44 34 14  6 35 11 12 24 31 23  9 20 29  5 18 36 17]</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>21312</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G283" t="n">
+        <v>100</v>
+      </c>
+      <c r="H283" t="n">
+        <v>100</v>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J283" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>[10 22 33 28 38 23  9 41  1 15  7 30 43 32  4 25  3 34 44  5 36 18 26  6
+ 17 45  0 37  8 21  2 40 13 46 35 27 29 19 14 39 24 12 47 31 20 42 16 11]</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>21421</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G284" t="n">
+        <v>100</v>
+      </c>
+      <c r="H284" t="n">
+        <v>100</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J284" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>[45 24 47 41 25  3 44  9  4 28 33 32 35 11 23 34  1 39 30 43  5 26 18 16
+ 42 46 20 38 31 12 19 36  6  8 37  0 40 15  7 21 10 13 22  2 14 29 27 17]</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>21551</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G285" t="n">
+        <v>100</v>
+      </c>
+      <c r="H285" t="n">
+        <v>100</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J285" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>[35 17 32  3 25 41 47  4 42  5 30 37  8 39  0  7 27 36 29 19 38 24 22  2
+ 15 21 45 43  6 18 26 16 44 34  9 23 31 12 10 14 40 28  1 33 13 20 46 11]</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>21577</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G286" t="n">
+        <v>100</v>
+      </c>
+      <c r="H286" t="n">
+        <v>100</v>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J286" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>[ 9  4 33  2 38 12 19 32 18 36 27  8  0  7 15 22 24 25 41  3  1 28 40 21
+ 39 11 46 20 14 17 30 37 31 23 47 29 42 16 26  5 43 35  6 45 10 13 44 34]</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>21585</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G287" t="n">
+        <v>100</v>
+      </c>
+      <c r="H287" t="n">
+        <v>100</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J287" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>[43 14 24 23 31 26 18 19  9 44 34 25  3 41  1 21 15 22 13 12 46 42 16 36
+ 11 28 40 10 32  8  7  0 39  2 33  4 47 38 20 45 17  6 37 30 27 29  5 35]</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>21595</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G288" t="n">
+        <v>100</v>
+      </c>
+      <c r="H288" t="n">
+        <v>100</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J288" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>[ 1 28 46 19 44 34 23 43 45 37 21 33 38 31 12 22 11 10 32  6 18 26 16 42
+ 30  8 14 39  2 47  9  3 25 41 24 13 40 15  0  7 36  5 35 17 27 29 20  4]</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>21751</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G289" t="n">
+        <v>100</v>
+      </c>
+      <c r="H289" t="n">
+        <v>100</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J289" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>[21 15  8 17 37 39 24 12 20 31  4 47 28 41 23 33 32 18 36 26 27 29  6 35
+  9 44 34  3 25  1  7  0  2 13 38 16 42 11 22 10 14 45 30 43  5 19 46 40]</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>21876</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G290" t="n">
+        <v>100</v>
+      </c>
+      <c r="H290" t="n">
+        <v>100</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J290" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>[21 43  5 26 29 42 45 10 22 15  7 37 30 27 17  0 40  1 25  3  9 14 32 11
+ 34 44 28 33 13 46 19  8 39  6 35 36 18 16 20 23 41  4 47 31 12 38 24  2]</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>22116</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G291" t="n">
+        <v>100</v>
+      </c>
+      <c r="H291" t="n">
+        <v>100</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J291" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>[34  3  1 22  8 18 26 16 42 37  7  0 38 47 33 39 14 11 10  2 15 40 21 13
+ 12 46 35 29 36  5 27 17 19 20 44  9 28  4 41 23 31 32  6 45 43 30 24 25]</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>22340</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G292" t="n">
+        <v>100</v>
+      </c>
+      <c r="H292" t="n">
+        <v>100</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J292" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>[47 22  0 21 15  6 27  5 29 42 19 46 23  9 41 24 11 39  2 40 13 33 28  1
+  4 12 10 14  8  7 30 43 37 32 34 44 31 36 18 16 26 17 35 45 20 38 25  3]</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>22382</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G293" t="n">
+        <v>100</v>
+      </c>
+      <c r="H293" t="n">
+        <v>100</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J293" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>[13 24 18 36 29 46 19 45 17 35 27  5  6 39  2 10 11 14 32 30 43 12 31  9
+ 44 34  1  0  7 37  8  4 47 20 26 42 16 38 41 25  3 23 28 33 15 21 22 40]</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>22419</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G294" t="n">
+        <v>100</v>
+      </c>
+      <c r="H294" t="n">
+        <v>100</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J294" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>[ 8 33  1  3 25  9 41 42 16 26 29 38 23 44 34  7 37 30 24  4 28 47 46 11
+ 32 14 19 20 31 21 15 40 13 43 17  6 27 36 18  5 35 45 10  2  0 22 12 39]</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>22549</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G295" t="n">
+        <v>100</v>
+      </c>
+      <c r="H295" t="n">
+        <v>100</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J295" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>[19 42 29 35  8 15  7 37 14  1  3 25  9 41 28 33  5  6 17 27 36 34 44 23
+ 31  0 21 22 47  4 40  2 10 39 30 43 45 46 13 24 12 38 20 16 26 18 32 11]</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>22572</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G296" t="n">
+        <v>100</v>
+      </c>
+      <c r="H296" t="n">
+        <v>100</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J296" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>[28 12 32 43  6 27  5 35 17 26 42 11 19  3 25 41 22 10 46 20 31 24 13 21
+ 15  4 23 34  9 44 29 36 18 16 30 38 47 33  2  7  8 45 14 39 37  0 40  1]</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>22620</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G297" t="n">
+        <v>100</v>
+      </c>
+      <c r="H297" t="n">
+        <v>100</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J297" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>[15  2  0 39 45 32  8 21 40 28 41 47 35 27  5 18 36 17 43 30 20 12 24 38
+ 31 25  3 34  9 42 29  6 37  7  1 44 23 16 26 19 10 13  4 33 14 11 46 22]</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>23471</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G298" t="n">
+        <v>100</v>
+      </c>
+      <c r="H298" t="n">
+        <v>100</v>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J298" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>[ 4 47 41 25  1 24 35 29 44 34  3  9 26 36 18  5 27 45 13 28 40 33  0 39
+ 10 22  2 21 15 30 37  8  7 16 42 20 38 31 23 12 19 17 43  6 14 32 11 46]</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>23524</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G299" t="n">
+        <v>100</v>
+      </c>
+      <c r="H299" t="n">
+        <v>100</v>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J299" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>[ 0 15 40  1  3 25 42 16 21  7  6  5 36 18 30 37  8 39 33 13 22 14 27 35
+ 46 20  9 34 44 23 38  4 47 12 26 29 31 24 28 41 11 17 43 45 32 19 10  2]</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>23593</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G300" t="n">
+        <v>100</v>
+      </c>
+      <c r="H300" t="n">
+        <v>100</v>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J300" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>[41 17  6 43 30 47 38 31 36 18 16 26 37  7  0  8 11 10 32 45 22 12 28 13
+ 24  4 34 44 23 29 42 19 46 20 15 39 21 40 33 35  5 27 14  2  1  3 25  9]</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>23736</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Swap</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G301" t="n">
+        <v>100</v>
+      </c>
+      <c r="H301" t="n">
+        <v>100</v>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Slow</t>
+        </is>
+      </c>
+      <c r="J301" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
